--- a/portfolios/sml_equity/profit_reports/trend/Bollinger_year.xlsx
+++ b/portfolios/sml_equity/profit_reports/trend/Bollinger_year.xlsx
@@ -486,46 +486,46 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>38</v>
       </c>
       <c r="F2">
-        <v>1090.581108282437</v>
+        <v>1065.864898671727</v>
       </c>
       <c r="G2">
-        <v>-1295.3848406444</v>
+        <v>-1245.957256848989</v>
       </c>
       <c r="H2">
-        <v>0.1085522256786279</v>
+        <v>0.1061583337523293</v>
       </c>
       <c r="I2">
-        <v>-0.1287067374064855</v>
+        <v>-0.1240457479771876</v>
       </c>
       <c r="J2">
-        <v>-0.04753919740368355</v>
+        <v>-0.05740772431864322</v>
       </c>
       <c r="K2">
-        <v>14177.55440767168</v>
+        <v>11724.513885389</v>
       </c>
       <c r="L2">
-        <v>-32384.62101611</v>
+        <v>-33640.84593492271</v>
       </c>
       <c r="M2">
-        <v>0.3421052631578947</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="N2">
-        <v>0.8418973837457591</v>
+        <v>0.8554586385790522</v>
       </c>
       <c r="O2">
-        <v>0.4377866395477946</v>
+        <v>0.3485201860877621</v>
       </c>
       <c r="P2">
-        <v>-18207.06660843831</v>
+        <v>-21916.33204953371</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -536,46 +536,46 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E3">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F3">
-        <v>1842.219574184033</v>
+        <v>1940.796189685295</v>
       </c>
       <c r="G3">
-        <v>-917.2990367848483</v>
+        <v>-932.3577508378729</v>
       </c>
       <c r="H3">
-        <v>0.1837604462810902</v>
+        <v>0.1940126954695114</v>
       </c>
       <c r="I3">
-        <v>-0.09180781837102892</v>
+        <v>-0.09331122958962974</v>
       </c>
       <c r="J3">
-        <v>0.04042050216768953</v>
+        <v>0.04118082043805334</v>
       </c>
       <c r="K3">
-        <v>219224.1293278999</v>
+        <v>213487.5808653825</v>
       </c>
       <c r="L3">
-        <v>-118331.5757452455</v>
+        <v>-116544.7188547342</v>
       </c>
       <c r="M3">
-        <v>0.4798387096774194</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="N3">
-        <v>2.008308632527348</v>
+        <v>2.081600316982594</v>
       </c>
       <c r="O3">
-        <v>1.852625792796545</v>
+        <v>1.831808278944683</v>
       </c>
       <c r="P3">
-        <v>100892.5535826544</v>
+        <v>96942.86201064831</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -586,46 +586,46 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>602</v>
+        <v>504</v>
       </c>
       <c r="D4">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="E4">
-        <v>1125</v>
+        <v>965</v>
       </c>
       <c r="F4">
-        <v>2008.9133404631</v>
+        <v>2627.3161530074</v>
       </c>
       <c r="G4">
-        <v>-974.340983116981</v>
+        <v>-993.0214025778253</v>
       </c>
       <c r="H4">
-        <v>0.207604186283525</v>
+        <v>0.2710758953053513</v>
       </c>
       <c r="I4">
-        <v>-0.09656102875655899</v>
+        <v>-0.09831450929959681</v>
       </c>
       <c r="J4">
-        <v>0.06620115742489036</v>
+        <v>0.09461063465987872</v>
       </c>
       <c r="K4">
-        <v>1209365.830958785</v>
+        <v>1324167.341115729</v>
       </c>
       <c r="L4">
-        <v>-509580.3341701812</v>
+        <v>-457782.8665883777</v>
       </c>
       <c r="M4">
-        <v>0.5351111111111111</v>
+        <v>0.522279792746114</v>
       </c>
       <c r="N4">
-        <v>2.061817551835349</v>
+        <v>2.645779986400133</v>
       </c>
       <c r="O4">
-        <v>2.373258443986384</v>
+        <v>2.892566405955891</v>
       </c>
       <c r="P4">
-        <v>699785.4967886043</v>
+        <v>866384.4745273512</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -636,46 +636,46 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="D5">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="E5">
-        <v>601</v>
+        <v>530</v>
       </c>
       <c r="F5">
-        <v>1958.752190186365</v>
+        <v>2140.966170232832</v>
       </c>
       <c r="G5">
-        <v>-969.03445777231</v>
+        <v>-970.0211297631088</v>
       </c>
       <c r="H5">
-        <v>0.1938443799017718</v>
+        <v>0.2122189173511524</v>
       </c>
       <c r="I5">
-        <v>-0.09526770306927329</v>
+        <v>-0.09520616080491509</v>
       </c>
       <c r="J5">
-        <v>0.01537419224410499</v>
+        <v>0.0173230187465512</v>
       </c>
       <c r="K5">
-        <v>450513.0037428639</v>
+        <v>415347.4370251691</v>
       </c>
       <c r="L5">
-        <v>-359511.7838335267</v>
+        <v>-325927.0996004042</v>
       </c>
       <c r="M5">
-        <v>0.3826955074875208</v>
+        <v>0.3660377358490566</v>
       </c>
       <c r="N5">
-        <v>2.021344209667522</v>
+        <v>2.207133540230905</v>
       </c>
       <c r="O5">
-        <v>1.253124442651025</v>
+        <v>1.274356865490463</v>
       </c>
       <c r="P5">
-        <v>91001.21990933723</v>
+        <v>89420.33742476493</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -686,46 +686,46 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="D6">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="E6">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="F6">
-        <v>1801.214922371084</v>
+        <v>2046.452982136613</v>
       </c>
       <c r="G6">
-        <v>-866.544726371785</v>
+        <v>-846.7055717687756</v>
       </c>
       <c r="H6">
-        <v>0.180037051507853</v>
+        <v>0.2043651906374828</v>
       </c>
       <c r="I6">
-        <v>-0.08647382477056953</v>
+        <v>-0.08451588313545165</v>
       </c>
       <c r="J6">
-        <v>0.01781303986011752</v>
+        <v>0.01830619397016903</v>
       </c>
       <c r="K6">
-        <v>324218.686026795</v>
+        <v>300828.588374082</v>
       </c>
       <c r="L6">
-        <v>-242632.5233840998</v>
+        <v>-225223.6820904944</v>
       </c>
       <c r="M6">
-        <v>0.391304347826087</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="N6">
-        <v>2.078617372599743</v>
+        <v>2.416959389863886</v>
       </c>
       <c r="O6">
-        <v>1.336254025242692</v>
+        <v>1.335688083872147</v>
       </c>
       <c r="P6">
-        <v>81586.16264269513</v>
+        <v>75604.90628358762</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -736,46 +736,46 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D7">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E7">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="F7">
-        <v>2077.43041318705</v>
+        <v>2221.640206844884</v>
       </c>
       <c r="G7">
-        <v>-853.8383252461484</v>
+        <v>-818.5710704103749</v>
       </c>
       <c r="H7">
-        <v>0.215494929058075</v>
+        <v>0.2298554816768995</v>
       </c>
       <c r="I7">
-        <v>-0.08564703280316439</v>
+        <v>-0.08202277077029688</v>
       </c>
       <c r="J7">
-        <v>0.05070335548400792</v>
+        <v>0.04924538921494098</v>
       </c>
       <c r="K7">
-        <v>338621.157349489</v>
+        <v>313251.2691651287</v>
       </c>
       <c r="L7">
-        <v>-168206.1500734912</v>
+        <v>-158802.7876596127</v>
       </c>
       <c r="M7">
-        <v>0.4527777777777778</v>
+        <v>0.4208955223880597</v>
       </c>
       <c r="N7">
-        <v>2.433048917765736</v>
+        <v>2.714046815423257</v>
       </c>
       <c r="O7">
-        <v>2.013131845664035</v>
+        <v>1.972580417395254</v>
       </c>
       <c r="P7">
-        <v>170415.0072759978</v>
+        <v>154448.481505516</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -786,46 +786,46 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="D8">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E8">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="F8">
-        <v>1988.332147264444</v>
+        <v>2185.868283077339</v>
       </c>
       <c r="G8">
-        <v>-843.1453669013586</v>
+        <v>-834.1021821127189</v>
       </c>
       <c r="H8">
-        <v>0.1988404969683931</v>
+        <v>0.2187874786231606</v>
       </c>
       <c r="I8">
-        <v>-0.08393158069970225</v>
+        <v>-0.08304863756446565</v>
       </c>
       <c r="J8">
-        <v>0.02137664132841607</v>
+        <v>0.01990321601891077</v>
       </c>
       <c r="K8">
-        <v>322109.80785684</v>
+        <v>288534.6133662087</v>
       </c>
       <c r="L8">
-        <v>-230178.685164071</v>
+        <v>-212696.0564387435</v>
       </c>
       <c r="M8">
-        <v>0.3724137931034483</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="N8">
-        <v>2.358231718181361</v>
+        <v>2.620624103321127</v>
       </c>
       <c r="O8">
-        <v>1.399390250349378</v>
+        <v>1.356558359366229</v>
       </c>
       <c r="P8">
-        <v>91931.12269276893</v>
+        <v>75838.55692746525</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -836,46 +836,46 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>42</v>
       </c>
       <c r="F9">
-        <v>1796.093833480188</v>
+        <v>1294.276291301255</v>
       </c>
       <c r="G9">
-        <v>-776.9345642595489</v>
+        <v>-756.0723005579936</v>
       </c>
       <c r="H9">
-        <v>0.1768697954039739</v>
+        <v>0.1258336468436882</v>
       </c>
       <c r="I9">
-        <v>-0.07929499779762628</v>
+        <v>-0.07714004066264141</v>
       </c>
       <c r="J9">
-        <v>0.03658907531738333</v>
+        <v>0.00984868255435703</v>
       </c>
       <c r="K9">
-        <v>34125.78283612356</v>
+        <v>23296.9732434226</v>
       </c>
       <c r="L9">
-        <v>-17869.49497796962</v>
+        <v>-18145.73521339185</v>
       </c>
       <c r="M9">
-        <v>0.4523809523809524</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N9">
-        <v>2.311769762994056</v>
+        <v>1.711841963190635</v>
       </c>
       <c r="O9">
-        <v>1.909722847690742</v>
+        <v>1.283881472392976</v>
       </c>
       <c r="P9">
-        <v>16256.28785815394</v>
+        <v>5151.238030030749</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -886,46 +886,46 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="D10">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="E10">
-        <v>999</v>
+        <v>929</v>
       </c>
       <c r="F10">
-        <v>2536.005353503645</v>
+        <v>2754.67662934896</v>
       </c>
       <c r="G10">
-        <v>-1012.223969251709</v>
+        <v>-1002.523629543307</v>
       </c>
       <c r="H10">
-        <v>0.2528897042752947</v>
+        <v>0.2748679142881063</v>
       </c>
       <c r="I10">
-        <v>-0.1003665597356371</v>
+        <v>-0.09941061602228903</v>
       </c>
       <c r="J10">
-        <v>0.05628261439533674</v>
+        <v>0.06053403040744949</v>
       </c>
       <c r="K10">
-        <v>1123450.371602116</v>
+        <v>1093606.621851538</v>
       </c>
       <c r="L10">
-        <v>-562796.5269039505</v>
+        <v>-533342.5709170396</v>
       </c>
       <c r="M10">
-        <v>0.4434434434434434</v>
+        <v>0.4273412271259419</v>
       </c>
       <c r="N10">
-        <v>2.505379669460304</v>
+        <v>2.747742345588237</v>
       </c>
       <c r="O10">
-        <v>1.996192794192294</v>
+        <v>2.050476900749118</v>
       </c>
       <c r="P10">
-        <v>560653.8446981652</v>
+        <v>560264.0509344984</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -936,46 +936,46 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="D11">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="E11">
-        <v>645</v>
+        <v>585</v>
       </c>
       <c r="F11">
-        <v>1743.392367679905</v>
+        <v>1976.227219895312</v>
       </c>
       <c r="G11">
-        <v>-905.2352585260646</v>
+        <v>-907.2027938939198</v>
       </c>
       <c r="H11">
-        <v>0.1748373780767717</v>
+        <v>0.1984282379405465</v>
       </c>
       <c r="I11">
-        <v>-0.09003533261297143</v>
+        <v>-0.09041322838037601</v>
       </c>
       <c r="J11">
-        <v>0.02823341262523948</v>
+        <v>0.03549202616976976</v>
       </c>
       <c r="K11">
-        <v>502097.0018918127</v>
+        <v>503937.9410733046</v>
       </c>
       <c r="L11">
-        <v>-323168.9872938051</v>
+        <v>-299376.9219849936</v>
       </c>
       <c r="M11">
-        <v>0.4465116279069767</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="N11">
-        <v>1.925899760597656</v>
+        <v>2.178374265596005</v>
       </c>
       <c r="O11">
-        <v>1.553667033759453</v>
+        <v>1.683289205233277</v>
       </c>
       <c r="P11">
-        <v>178928.0145980075</v>
+        <v>204561.019088311</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -986,46 +986,46 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D12">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="E12">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="F12">
-        <v>1973.404111545262</v>
+        <v>2233.501933587452</v>
       </c>
       <c r="G12">
-        <v>-950.1399896132741</v>
+        <v>-925.1404744456071</v>
       </c>
       <c r="H12">
-        <v>0.1994667414811459</v>
+        <v>0.226940156990908</v>
       </c>
       <c r="I12">
-        <v>-0.0945110067747509</v>
+        <v>-0.09221070856189445</v>
       </c>
       <c r="J12">
-        <v>0.01992328449264513</v>
+        <v>0.03886911121872084</v>
       </c>
       <c r="K12">
-        <v>343372.3154088755</v>
+        <v>359593.8113075797</v>
       </c>
       <c r="L12">
-        <v>-259388.217164424</v>
+        <v>-213707.4495969353</v>
       </c>
       <c r="M12">
-        <v>0.3892617449664429</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="N12">
-        <v>2.07696143001883</v>
+        <v>2.414230049686113</v>
       </c>
       <c r="O12">
-        <v>1.323777614737275</v>
+        <v>1.682645186144866</v>
       </c>
       <c r="P12">
-        <v>83984.09824445151</v>
+        <v>145886.3617106444</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1036,46 +1036,46 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="D13">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="E13">
-        <v>774</v>
+        <v>709</v>
       </c>
       <c r="F13">
-        <v>1556.541167053524</v>
+        <v>1935.847265955373</v>
       </c>
       <c r="G13">
-        <v>-910.8070438226649</v>
+        <v>-925.9098326102682</v>
       </c>
       <c r="H13">
-        <v>0.1591779627356713</v>
+        <v>0.1977033107758932</v>
       </c>
       <c r="I13">
-        <v>-0.0907535215940132</v>
+        <v>-0.09219071664821937</v>
       </c>
       <c r="J13">
-        <v>0.008379509012205331</v>
+        <v>0.01861503995535538</v>
       </c>
       <c r="K13">
-        <v>477858.1382854319</v>
+        <v>524614.6090739062</v>
       </c>
       <c r="L13">
-        <v>-425346.8894651848</v>
+        <v>-405548.5066832977</v>
       </c>
       <c r="M13">
-        <v>0.396640826873385</v>
+        <v>0.382228490832158</v>
       </c>
       <c r="N13">
-        <v>1.708969180256564</v>
+        <v>2.090751386123583</v>
       </c>
       <c r="O13">
-        <v>1.12345511421577</v>
+        <v>1.293592752601577</v>
       </c>
       <c r="P13">
-        <v>52511.24882024713</v>
+        <v>119066.1023906085</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1086,46 +1086,46 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>594</v>
+        <v>507</v>
       </c>
       <c r="D14">
-        <v>643</v>
+        <v>568</v>
       </c>
       <c r="E14">
-        <v>1237</v>
+        <v>1075</v>
       </c>
       <c r="F14">
-        <v>1747.791426727374</v>
+        <v>2066.836578176029</v>
       </c>
       <c r="G14">
-        <v>-833.7949694381182</v>
+        <v>-819.1683359369599</v>
       </c>
       <c r="H14">
-        <v>0.1755557137030966</v>
+        <v>0.2075064045666483</v>
       </c>
       <c r="I14">
-        <v>-0.0834386264152968</v>
+        <v>-0.08199896206661708</v>
       </c>
       <c r="J14">
-        <v>0.04092890634971989</v>
+        <v>0.05453984805716494</v>
       </c>
       <c r="K14">
-        <v>1038188.107476059</v>
+        <v>1047886.145135246</v>
       </c>
       <c r="L14">
-        <v>-536130.1653487103</v>
+        <v>-465287.6148121934</v>
       </c>
       <c r="M14">
-        <v>0.4801940177849636</v>
+        <v>0.4716279069767442</v>
       </c>
       <c r="N14">
-        <v>2.096188500519719</v>
+        <v>2.523091393433797</v>
       </c>
       <c r="O14">
-        <v>1.936447852735166</v>
+        <v>2.252125592378405</v>
       </c>
       <c r="P14">
-        <v>502057.9421273492</v>
+        <v>582598.5303230529</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1136,46 +1136,46 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D15">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="E15">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="F15">
-        <v>2094.198345925976</v>
+        <v>2258.922078427619</v>
       </c>
       <c r="G15">
-        <v>-974.4276247435315</v>
+        <v>-966.2108762869353</v>
       </c>
       <c r="H15">
-        <v>0.2086263519482036</v>
+        <v>0.2246646777007115</v>
       </c>
       <c r="I15">
-        <v>-0.09727846481185544</v>
+        <v>-0.09646070284454954</v>
       </c>
       <c r="J15">
-        <v>0.00202048094271874</v>
+        <v>0.00517703895909613</v>
       </c>
       <c r="K15">
-        <v>389520.8923422317</v>
+        <v>368204.2987837017</v>
       </c>
       <c r="L15">
-        <v>-377103.4907757469</v>
+        <v>-340106.2284530012</v>
       </c>
       <c r="M15">
-        <v>0.3246073298429319</v>
+        <v>0.3165048543689321</v>
       </c>
       <c r="N15">
-        <v>2.149157405586862</v>
+        <v>2.337918288716083</v>
       </c>
       <c r="O15">
-        <v>1.032928365475856</v>
+        <v>1.082615571195231</v>
       </c>
       <c r="P15">
-        <v>12417.40156648483</v>
+        <v>28098.07033070043</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1186,46 +1186,46 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D16">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E16">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="F16">
-        <v>1938.286745962298</v>
+        <v>1811.515751749597</v>
       </c>
       <c r="G16">
-        <v>-1017.912960770814</v>
+        <v>-981.2746221879318</v>
       </c>
       <c r="H16">
-        <v>0.1939519527657092</v>
+        <v>0.1817883529152428</v>
       </c>
       <c r="I16">
-        <v>-0.1013668089505278</v>
+        <v>-0.0975941553730008</v>
       </c>
       <c r="J16">
-        <v>0.003066757839054847</v>
+        <v>-0.002333961707289194</v>
       </c>
       <c r="K16">
-        <v>292681.298640307</v>
+        <v>242743.110734446</v>
       </c>
       <c r="L16">
-        <v>-280943.9771727446</v>
+        <v>-254150.1271466743</v>
       </c>
       <c r="M16">
-        <v>0.3536299765807963</v>
+        <v>0.3409669211195929</v>
       </c>
       <c r="N16">
-        <v>1.90417729281542</v>
+        <v>1.846084379223514</v>
       </c>
       <c r="O16">
-        <v>1.041778156576553</v>
+        <v>0.9551170147334016</v>
       </c>
       <c r="P16">
-        <v>11737.3214675624</v>
+        <v>-11407.01641222829</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1236,46 +1236,46 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="D17">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="E17">
-        <v>1026</v>
+        <v>962</v>
       </c>
       <c r="F17">
-        <v>1610.051314851471</v>
+        <v>1648.779263303026</v>
       </c>
       <c r="G17">
-        <v>-927.9661436552806</v>
+        <v>-929.278701240899</v>
       </c>
       <c r="H17">
-        <v>0.1611766229733693</v>
+        <v>0.1651016915794723</v>
       </c>
       <c r="I17">
-        <v>-0.0920064629246105</v>
+        <v>-0.09211484013429698</v>
       </c>
       <c r="J17">
-        <v>0.02668853153633319</v>
+        <v>0.02526359793466836</v>
       </c>
       <c r="K17">
-        <v>774434.6824435572</v>
+        <v>723814.0965900293</v>
       </c>
       <c r="L17">
-        <v>-505741.5482921284</v>
+        <v>-486012.7607489906</v>
       </c>
       <c r="M17">
-        <v>0.4688109161793372</v>
+        <v>0.4563409563409563</v>
       </c>
       <c r="N17">
-        <v>1.735032388691941</v>
+        <v>1.774257024401132</v>
       </c>
       <c r="O17">
-        <v>1.531285465983161</v>
+        <v>1.489290313025043</v>
       </c>
       <c r="P17">
-        <v>268693.1341514288</v>
+        <v>237801.3358410387</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1286,46 +1286,46 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="D18">
-        <v>709</v>
+        <v>643</v>
       </c>
       <c r="E18">
-        <v>1166</v>
+        <v>1035</v>
       </c>
       <c r="F18">
-        <v>1801.576457882673</v>
+        <v>2002.039561261423</v>
       </c>
       <c r="G18">
-        <v>-906.0729570547467</v>
+        <v>-921.6669757236119</v>
       </c>
       <c r="H18">
-        <v>0.1795702066869311</v>
+        <v>0.1995506913983129</v>
       </c>
       <c r="I18">
-        <v>-0.09019574974053032</v>
+        <v>-0.09182953350317111</v>
       </c>
       <c r="J18">
-        <v>0.01553584724690539</v>
+        <v>0.01852896713584513</v>
       </c>
       <c r="K18">
-        <v>823320.4412523822</v>
+        <v>784799.508014478</v>
       </c>
       <c r="L18">
-        <v>-642405.7265518154</v>
+        <v>-592631.8653902824</v>
       </c>
       <c r="M18">
-        <v>0.3919382504288165</v>
+        <v>0.378743961352657</v>
       </c>
       <c r="N18">
-        <v>1.988334872876929</v>
+        <v>2.172194093956331</v>
       </c>
       <c r="O18">
-        <v>1.281620644435483</v>
+        <v>1.324261407201994</v>
       </c>
       <c r="P18">
-        <v>180914.7147005668</v>
+        <v>192167.6426241957</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1336,46 +1336,46 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="D19">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="E19">
-        <v>1012</v>
+        <v>936</v>
       </c>
       <c r="F19">
-        <v>1873.10200694255</v>
+        <v>2101.4519154231</v>
       </c>
       <c r="G19">
-        <v>-928.9612899885211</v>
+        <v>-923.8385216330095</v>
       </c>
       <c r="H19">
-        <v>0.1849870242733901</v>
+        <v>0.2071412624601392</v>
       </c>
       <c r="I19">
-        <v>-0.09274863651955767</v>
+        <v>-0.09215566831216562</v>
       </c>
       <c r="J19">
-        <v>0.007697264518207953</v>
+        <v>0.01112735373853354</v>
       </c>
       <c r="K19">
-        <v>685555.3345409738</v>
+        <v>678768.9686816609</v>
       </c>
       <c r="L19">
-        <v>-600108.9933325845</v>
+        <v>-566313.0137610348</v>
       </c>
       <c r="M19">
-        <v>0.3616600790513834</v>
+        <v>0.3450854700854701</v>
       </c>
       <c r="N19">
-        <v>2.016340214742097</v>
+        <v>2.274696135974607</v>
       </c>
       <c r="O19">
-        <v>1.142384703708372</v>
+        <v>1.198575614877321</v>
       </c>
       <c r="P19">
-        <v>85446.34120838926</v>
+        <v>112455.9549206261</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1386,46 +1386,46 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D20">
         <v>326</v>
       </c>
       <c r="E20">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="F20">
-        <v>2160.11455313339</v>
+        <v>2302.774924639733</v>
       </c>
       <c r="G20">
-        <v>-1085.792574203984</v>
+        <v>-1050.799571582465</v>
       </c>
       <c r="H20">
-        <v>0.2126728852694492</v>
+        <v>0.2264910358078325</v>
       </c>
       <c r="I20">
-        <v>-0.1077371886433156</v>
+        <v>-0.1043882037536548</v>
       </c>
       <c r="J20">
-        <v>0.002080780238075554</v>
+        <v>0.0008286255629687808</v>
       </c>
       <c r="K20">
-        <v>367219.4740326762</v>
+        <v>350021.7885452395</v>
       </c>
       <c r="L20">
-        <v>-353968.3791904988</v>
+        <v>-342560.6603358834</v>
       </c>
       <c r="M20">
-        <v>0.3427419354838709</v>
+        <v>0.3179916317991632</v>
       </c>
       <c r="N20">
-        <v>1.989435739802339</v>
+        <v>2.191450193657618</v>
       </c>
       <c r="O20">
-        <v>1.037435815234349</v>
+        <v>1.021780458392509</v>
       </c>
       <c r="P20">
-        <v>13251.09484217735</v>
+        <v>7461.128209356102</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1436,46 +1436,46 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>519</v>
+        <v>394</v>
       </c>
       <c r="D21">
-        <v>947</v>
+        <v>905</v>
       </c>
       <c r="E21">
-        <v>1466</v>
+        <v>1299</v>
       </c>
       <c r="F21">
-        <v>2344.857486742009</v>
+        <v>2283.165363628508</v>
       </c>
       <c r="G21">
-        <v>-1230.229006996878</v>
+        <v>-1214.332938672681</v>
       </c>
       <c r="H21">
-        <v>0.2344101691039163</v>
+        <v>0.2283173661189831</v>
       </c>
       <c r="I21">
-        <v>-0.1187149378196657</v>
+        <v>-0.116914055953673</v>
       </c>
       <c r="J21">
-        <v>0.006300021589160578</v>
+        <v>-0.01220183093702418</v>
       </c>
       <c r="K21">
-        <v>1216981.035619102</v>
+        <v>899567.1532696316</v>
       </c>
       <c r="L21">
-        <v>-1165026.869626043</v>
+        <v>-1098971.309498776</v>
       </c>
       <c r="M21">
-        <v>0.3540245566166439</v>
+        <v>0.3033102386451116</v>
       </c>
       <c r="N21">
-        <v>1.906033326645467</v>
+        <v>1.88018070738006</v>
       </c>
       <c r="O21">
-        <v>1.044594822100314</v>
+        <v>0.8185538107267882</v>
       </c>
       <c r="P21">
-        <v>51954.16599305905</v>
+        <v>-199404.1562291442</v>
       </c>
     </row>
   </sheetData>
